--- a/vignettes/SQL_comorbidity.xlsx
+++ b/vignettes/SQL_comorbidity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\vignettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\vignettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A1070-D1BE-446D-9F9A-179B8FF3F236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-25230" yWindow="1425" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-unique" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,7 @@
     <sheet name="6.1-conf" sheetId="7" r:id="rId7"/>
     <sheet name="6.2-conf" sheetId="8" r:id="rId8"/>
     <sheet name="6.3-conf" sheetId="9" r:id="rId9"/>
+    <sheet name="7-poids" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -80,12 +82,33 @@
   </si>
   <si>
     <t>obstetric</t>
+  </si>
+  <si>
+    <t>aids</t>
+  </si>
+  <si>
+    <t>canc</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>metacanc</t>
+  </si>
+  <si>
+    <t>pvd</t>
+  </si>
+  <si>
+    <t>wloss</t>
+  </si>
+  <si>
+    <t>carit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,14 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
@@ -508,15 +531,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2405FC1E-A29A-404C-A444-4D6CF205211A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -650,12 +743,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -760,12 +853,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -851,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -968,14 +1061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1170,14 +1263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1236,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1421,14 +1514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/vignettes/SQL_comorbidity.xlsx
+++ b/vignettes/SQL_comorbidity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\vignettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\vignettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A1070-D1BE-446D-9F9A-179B8FF3F236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25230" yWindow="1425" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25230" yWindow="1425" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1-unique" sheetId="1" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <sheet name="6.2-conf" sheetId="8" r:id="rId8"/>
     <sheet name="6.3-conf" sheetId="9" r:id="rId9"/>
     <sheet name="7-poids" sheetId="10" r:id="rId10"/>
+    <sheet name="8-nDx" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -103,12 +103,33 @@
   </si>
   <si>
     <t>carit</t>
+  </si>
+  <si>
+    <t>DATE_REP</t>
+  </si>
+  <si>
+    <t>SOURCE_REP</t>
+  </si>
+  <si>
+    <t>DATE_CONF</t>
+  </si>
+  <si>
+    <t>SOURCE_CONF</t>
+  </si>
+  <si>
+    <t>POIDS</t>
+  </si>
+  <si>
+    <t>MED_ECHO</t>
+  </si>
+  <si>
+    <t>fed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,14 +441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
@@ -532,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2405FC1E-A29A-404C-A444-4D6CF205211A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -601,15 +622,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43513</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43514</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43527</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43511</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43830</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -743,12 +903,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -853,12 +1013,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -944,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1061,14 +1221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1263,14 +1423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1329,14 +1489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1514,14 +1674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
